--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC663003-C0A8-49E0-975D-3C69AD5C89CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC46D1-4CAE-4A0A-866F-7F036E7B28D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -315,6 +315,125 @@
     <t xml:space="preserve">Web application security
 Restrict or allow particular ip
 </t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t>S3
+Lambda
+RedShift
+RDS
+Athena
+EMR
+QuickSight
+EC2
+Sagemaker</t>
+  </si>
+  <si>
+    <t>Serverless data integration
+Automated integration as new data arrives
+Automatic schema discovery
+Discover and search across multiple AWS data sets and create catalog 
+Drag and Drop Editor for ETL jobs</t>
+  </si>
+  <si>
+    <t>Created Glue Schema resource using terraform</t>
+  </si>
+  <si>
+    <t>Created Glue Schema</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/glue.tf</t>
+  </si>
+  <si>
+    <t>Aurora
+PostgreSQL
+MySQL
+MariaDB
+Oracle Database
+SQL Server</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/dms.tf</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/lambda.tf</t>
+  </si>
+  <si>
+    <t>EFS</t>
+  </si>
+  <si>
+    <t>Lambda
+EC2
+ECS
+EKS
+Fargate
+DataSync
+Transfer Family</t>
+  </si>
+  <si>
+    <t>Automatically grows and shrinks as we add or remove files
+Replicate Data
+Serverless</t>
+  </si>
+  <si>
+    <t>Created EFS</t>
+  </si>
+  <si>
+    <t>Created and destroyed EFS using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/efs.tf</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>S3
+Glue
+Kinesis
+CloudTrail
+CloudWatch</t>
+  </si>
+  <si>
+    <t>NoSQL Database Service
+Unlimited throughtput and storage
+Automatic multi-region replication
+High performance Database
+On demand Backup and restore</t>
+  </si>
+  <si>
+    <t>Created and deleted DynamoDB table using terraform</t>
+  </si>
+  <si>
+    <t>Created DynamoDB table</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/dynamodb.tf</t>
+  </si>
+  <si>
+    <t>DocumentDB</t>
+  </si>
+  <si>
+    <t>Mission-critical MongoDB workloads
+Storage scalability upto 64TB
+Faster than MongoDB</t>
+  </si>
+  <si>
+    <t>DMS
+EC2
+VPC
+KMS</t>
+  </si>
+  <si>
+    <t>Created DocumentDB cluster using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/documentdb.tf</t>
+  </si>
+  <si>
+    <t>Created DocumentDB cluster</t>
   </si>
 </sst>
 </file>
@@ -696,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,7 +829,7 @@
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.90625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.54296875" style="1" customWidth="1"/>
@@ -771,6 +890,9 @@
       <c r="G2" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>56</v>
       </c>
@@ -778,7 +900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44623</v>
       </c>
@@ -802,6 +924,9 @@
       </c>
       <c r="H3" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -823,8 +948,12 @@
       <c r="F4" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44624</v>
       </c>
@@ -846,8 +975,11 @@
       <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44624</v>
       </c>
@@ -869,8 +1001,11 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="H6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44624</v>
       </c>
@@ -891,6 +1026,9 @@
       </c>
       <c r="G7" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -909,8 +1047,11 @@
       <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44627</v>
       </c>
@@ -931,6 +1072,9 @@
       </c>
       <c r="G9" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="174" x14ac:dyDescent="0.35">
@@ -955,8 +1099,11 @@
       <c r="G10" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44628</v>
       </c>
@@ -978,11 +1125,14 @@
       <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44622</v>
       </c>
@@ -1004,11 +1154,14 @@
       <c r="G12" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>44624</v>
       </c>
@@ -1026,6 +1179,9 @@
       </c>
       <c r="G13" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -1047,6 +1203,12 @@
       <c r="F14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -1067,10 +1229,119 @@
       <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>44629</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>44630</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>44630</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>44630</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1084,8 +1355,14 @@
     <hyperlink ref="G12" r:id="rId8" xr:uid="{8398AD96-9249-4CA5-935D-E2CB96804814}"/>
     <hyperlink ref="G13" r:id="rId9" xr:uid="{8951219F-A754-471E-9D85-EC1A101AE25A}"/>
     <hyperlink ref="G9" r:id="rId10" xr:uid="{17AB15B3-F42D-4F48-A8D1-EE8CB5C74263}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{9C2B5265-1BB9-42D2-ADCE-FB6C51C4AB4D}"/>
+    <hyperlink ref="G15" r:id="rId12" xr:uid="{8E943BEA-68E1-407D-A467-F7C05663AD0E}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{79BCBBCB-6BCC-400B-A424-9FA88AD81DB5}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{FF1C02AC-83C9-4CF6-B95D-5FB84FA2F98E}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{F13C23EF-805F-402D-BC99-F4B4688415EF}"/>
+    <hyperlink ref="G19" r:id="rId16" xr:uid="{3F0EC9AE-FBA8-455A-8B49-DAE1EFE44771}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC46D1-4CAE-4A0A-866F-7F036E7B28D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71C66F-F172-4519-8BC0-5C180FCF86DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -435,12 +435,15 @@
   <si>
     <t>Created DocumentDB cluster</t>
   </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/AWS%20Services%20Actions.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +463,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -499,6 +509,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -815,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,6 +941,9 @@
       <c r="H3" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>82</v>
       </c>
@@ -952,6 +971,7 @@
       <c r="H4" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -978,6 +998,7 @@
       <c r="H5" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1004,6 +1025,7 @@
       <c r="H6" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -1030,6 +1052,7 @@
       <c r="H7" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -1050,6 +1073,7 @@
       <c r="H8" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -1076,6 +1100,7 @@
       <c r="H9" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -1102,6 +1127,7 @@
       <c r="H10" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -1128,6 +1154,7 @@
       <c r="H11" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1157,6 +1184,7 @@
       <c r="H12" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="1" t="s">
         <v>55</v>
       </c>
@@ -1183,6 +1211,7 @@
       <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -1209,6 +1238,7 @@
       <c r="H14" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -1235,6 +1265,7 @@
       <c r="H15" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -1261,6 +1292,7 @@
       <c r="H16" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="1" t="s">
         <v>77</v>
       </c>
@@ -1287,6 +1319,7 @@
       <c r="G17" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="I17" s="6"/>
       <c r="J17" s="1" t="s">
         <v>86</v>
       </c>
@@ -1313,6 +1346,7 @@
       <c r="G18" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="1" t="s">
         <v>92</v>
       </c>
@@ -1339,11 +1373,39 @@
       <c r="G19" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="I19" s="6"/>
       <c r="J19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I27" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:I27"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{2A3A4F26-C4D0-479D-9817-AB4C393A665D}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{31D7CC19-C5B0-423E-B891-6C9E2E6CC363}"/>
@@ -1361,8 +1423,9 @@
     <hyperlink ref="G17" r:id="rId14" xr:uid="{FF1C02AC-83C9-4CF6-B95D-5FB84FA2F98E}"/>
     <hyperlink ref="G18" r:id="rId15" xr:uid="{F13C23EF-805F-402D-BC99-F4B4688415EF}"/>
     <hyperlink ref="G19" r:id="rId16" xr:uid="{3F0EC9AE-FBA8-455A-8B49-DAE1EFE44771}"/>
+    <hyperlink ref="I3" r:id="rId17" xr:uid="{0EA5DE86-A4F6-40BE-B296-AAD55A78B618}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71C66F-F172-4519-8BC0-5C180FCF86DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42588BEB-8A07-48FC-9D71-EDFAC59B58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -437,6 +437,140 @@
   </si>
   <si>
     <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/AWS%20Services%20Actions.xlsx</t>
+  </si>
+  <si>
+    <t>Lambda
+S3
+SageMaker</t>
+  </si>
+  <si>
+    <t>Glacier</t>
+  </si>
+  <si>
+    <t>Archival storage
+Low cost storage for data not to be in use for long time
+Choice of storage class according to data retrieval requirements</t>
+  </si>
+  <si>
+    <t>QuickSight
+Sagemaker
+SNS</t>
+  </si>
+  <si>
+    <t>Created Glacier Vault from Console</t>
+  </si>
+  <si>
+    <t>Created Glacier Vault using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/glacier.tf</t>
+  </si>
+  <si>
+    <t>SageMaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully managed machine learning service
+One-click deployment
+More than 150 open source models
+</t>
+  </si>
+  <si>
+    <t>EC2
+RDS
+Lambda
+API Gateway
+VPC</t>
+  </si>
+  <si>
+    <t>EC2
+S3
+DNS
+Lambda
+SageMaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redshift
+Snowflare
+EMR
+LakeFormation
+QuickSight
+</t>
+  </si>
+  <si>
+    <t>EC2
+DynamoDb
+S3
+ECS
+EKS
+Lambda</t>
+  </si>
+  <si>
+    <t>Monitor and troubleshoot infrastructure
+Track and Visualize logs
+Anamalous behavior detection
+Set alarm based on some log triggers
+Take automated actions 
+Discover insights from logs, metrics and events
+Track resource health</t>
+  </si>
+  <si>
+    <t>Created a cloudWatch Dashboard resource using terraform</t>
+  </si>
+  <si>
+    <t>Created alarm for EC2 CPU utilization above threshold</t>
+  </si>
+  <si>
+    <t>CloudWatch
+Replication instance</t>
+  </si>
+  <si>
+    <t>CloudFormation Stack</t>
+  </si>
+  <si>
+    <t>S3 bucket
+CloudWatch</t>
+  </si>
+  <si>
+    <t>CloudWatch
+CloudTrail</t>
+  </si>
+  <si>
+    <t>CloudWatch
+S3 bucket</t>
+  </si>
+  <si>
+    <t>CloudTrail
+S3 bucket</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/cloudwatch.tf</t>
+  </si>
+  <si>
+    <t>API Gateway
+CloudFront
+ELB 
+LightSail
+Elastic Beanstalk
+EC2</t>
+  </si>
+  <si>
+    <t>CloudTrail
+Lambda
+Secrets Manager
+S3</t>
+  </si>
+  <si>
+    <t>DynamoDB
+Kinesis
+S3
+API Gateway
+SQS
+EventBridge
+EFS</t>
+  </si>
+  <si>
+    <t>EC2
+RDS</t>
   </si>
 </sst>
 </file>
@@ -511,10 +645,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -833,22 +967,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="10" width="19.81640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -971,7 +1099,12 @@
       <c r="H4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -998,7 +1131,12 @@
       <c r="H5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1025,7 +1163,12 @@
       <c r="H6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -1050,11 +1193,13 @@
         <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44627</v>
       </c>
@@ -1071,11 +1216,13 @@
         <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44627</v>
       </c>
@@ -1098,9 +1245,14 @@
         <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -1125,9 +1277,11 @@
         <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -1152,11 +1306,13 @@
         <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -1181,15 +1337,14 @@
       <c r="G12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>44624</v>
       </c>
@@ -1211,9 +1366,14 @@
       <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="I13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>44627</v>
       </c>
@@ -1238,9 +1398,14 @@
       <c r="H14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="I14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>44628</v>
       </c>
@@ -1263,16 +1428,21 @@
         <v>83</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>44629</v>
       </c>
       <c r="B16" s="3">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>76</v>
@@ -1292,17 +1462,19 @@
       <c r="H16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="B17" s="3">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>85</v>
@@ -1319,7 +1491,12 @@
       <c r="G17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="H17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>86</v>
       </c>
@@ -1346,12 +1523,17 @@
       <c r="G18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="H18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>44630</v>
       </c>
@@ -1373,19 +1555,105 @@
       <c r="G19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="H19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I22" s="6"/>
+    <row r="20" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>44630</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>44630</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>44630</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44630</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I23" s="6"/>
@@ -1403,9 +1671,6 @@
       <c r="I27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I3:I27"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{2A3A4F26-C4D0-479D-9817-AB4C393A665D}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{31D7CC19-C5B0-423E-B891-6C9E2E6CC363}"/>
@@ -1424,8 +1689,12 @@
     <hyperlink ref="G18" r:id="rId15" xr:uid="{F13C23EF-805F-402D-BC99-F4B4688415EF}"/>
     <hyperlink ref="G19" r:id="rId16" xr:uid="{3F0EC9AE-FBA8-455A-8B49-DAE1EFE44771}"/>
     <hyperlink ref="I3" r:id="rId17" xr:uid="{0EA5DE86-A4F6-40BE-B296-AAD55A78B618}"/>
+    <hyperlink ref="G20" r:id="rId18" xr:uid="{73E5A990-B37A-45F6-A316-D0E97EC3DD88}"/>
+    <hyperlink ref="G22" r:id="rId19" xr:uid="{0B7B7FA2-BD72-446E-B3F8-70584586B5FC}"/>
+    <hyperlink ref="I4" r:id="rId20" xr:uid="{09EB1D13-C603-4FF9-A63B-D690BB35C7AC}"/>
+    <hyperlink ref="I5:I22" r:id="rId21" display="https://github.com/ShivamGautam98/AWS-terraform/blob/main/AWS%20Services%20Actions.xlsx" xr:uid="{4E8B50E3-05D1-4F72-AB8B-9F807CE11285}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42588BEB-8A07-48FC-9D71-EDFAC59B58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED2D2D2-1C84-4449-80F3-D093C0918366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -571,6 +571,76 @@
   <si>
     <t>EC2
 RDS</t>
+  </si>
+  <si>
+    <t>ELB</t>
+  </si>
+  <si>
+    <t>Automatically distribute incoming application traffic in one or more availability zones
+Monitor health and performance of applications</t>
+  </si>
+  <si>
+    <t>EC2
+Lambda
+Fargate
+EKS
+ECS
+WAF
+Certificate Manager
+Cognito</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/loadbalancer.tf</t>
+  </si>
+  <si>
+    <t>GuardDuty</t>
+  </si>
+  <si>
+    <t>Threat Detection
+Monitor malicious activity</t>
+  </si>
+  <si>
+    <t>Tried to create a load balancer and attached it to t2.micro EC2 instance but failed</t>
+  </si>
+  <si>
+    <t>Created GuardDuty Detector resource using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/guardduty.tf</t>
+  </si>
+  <si>
+    <t>CloudWatch
+CloudTrail
+S3</t>
+  </si>
+  <si>
+    <t>Secrets Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDS
+Redshift 
+DocumentDB
+KMS
+</t>
+  </si>
+  <si>
+    <t>Rotate, manage, and retrieve database credentials, API keys
+Secret encryption at rest</t>
+  </si>
+  <si>
+    <t>Not available for free tier access</t>
+  </si>
+  <si>
+    <t>Athena</t>
+  </si>
+  <si>
+    <t>Interactive query service to analyze data in S3 using standard SQL
+Serverless</t>
+  </si>
+  <si>
+    <t>Glue
+S3
+QuickSight</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1038,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1655,17 +1725,124 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I26" s="6"/>
+    <row r="23" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>44631</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44631</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I27" s="6"/>
@@ -1693,8 +1870,14 @@
     <hyperlink ref="G22" r:id="rId19" xr:uid="{0B7B7FA2-BD72-446E-B3F8-70584586B5FC}"/>
     <hyperlink ref="I4" r:id="rId20" xr:uid="{09EB1D13-C603-4FF9-A63B-D690BB35C7AC}"/>
     <hyperlink ref="I5:I22" r:id="rId21" display="https://github.com/ShivamGautam98/AWS-terraform/blob/main/AWS%20Services%20Actions.xlsx" xr:uid="{4E8B50E3-05D1-4F72-AB8B-9F807CE11285}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{5DDE5742-8DAA-4725-9BB6-15657386C0FA}"/>
+    <hyperlink ref="G23" r:id="rId23" xr:uid="{3B0FC55F-5AD4-49FE-BC33-508FFA644419}"/>
+    <hyperlink ref="G24" r:id="rId24" xr:uid="{DA179113-F8C6-449C-A073-C4C4AEAAEEC8}"/>
+    <hyperlink ref="I24" r:id="rId25" xr:uid="{A12EA7CD-D13D-45AC-8DE2-D109688DBF56}"/>
+    <hyperlink ref="I25" r:id="rId26" xr:uid="{AA6D04A4-4E6A-4C30-A098-F92F56ED8CD3}"/>
+    <hyperlink ref="I26" r:id="rId27" xr:uid="{98358AD8-D0B2-468E-84DB-81BF4FBBC292}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED2D2D2-1C84-4449-80F3-D093C0918366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB99D89-55AF-4A97-9C51-C8FFD7E65931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -642,12 +642,36 @@
 S3
 QuickSight</t>
   </si>
+  <si>
+    <t>CodeBuild</t>
+  </si>
+  <si>
+    <t>Continuous Integration
+Preconfigured build environments for Java, Python, Node.js, Ruby, Go, Android, .NET Core for Linux, and DockerContinuous Scaling
+Can be integrated with existing CI/CD workflow
+Choice of custom build env as well as prepacked buid tools</t>
+  </si>
+  <si>
+    <t>KMS
+S3
+ECR
+SNS</t>
+  </si>
+  <si>
+    <t>Created a build project using console</t>
+  </si>
+  <si>
+    <t>Created a codebuild report group using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/codebuild.tf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,13 +691,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -715,9 +732,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1799,9 +1813,6 @@
       <c r="F25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="H25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1831,9 +1842,6 @@
       <c r="F26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="H26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1844,8 +1852,37 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I27" s="6"/>
+    <row r="27" spans="1:10" ht="232" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>44634</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44634</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1876,8 +1913,10 @@
     <hyperlink ref="I24" r:id="rId25" xr:uid="{A12EA7CD-D13D-45AC-8DE2-D109688DBF56}"/>
     <hyperlink ref="I25" r:id="rId26" xr:uid="{AA6D04A4-4E6A-4C30-A098-F92F56ED8CD3}"/>
     <hyperlink ref="I26" r:id="rId27" xr:uid="{98358AD8-D0B2-468E-84DB-81BF4FBBC292}"/>
+    <hyperlink ref="G27" r:id="rId28" xr:uid="{C2A58F46-2466-47A9-BD7C-4AC14B0E4C46}"/>
+    <hyperlink ref="I27" r:id="rId29" xr:uid="{7B843C1F-ED9B-43BB-BB6B-B1BB98384675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB99D89-55AF-4A97-9C51-C8FFD7E65931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23560D-A642-4601-A89B-CF111C92A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -665,6 +665,27 @@
   </si>
   <si>
     <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/codebuild.tf</t>
+  </si>
+  <si>
+    <t>Monitors and records account activity
+Audit
+Security Monitoring</t>
+  </si>
+  <si>
+    <t>S3
+CloudWatch
+EventBridge
+Athena
+Lambda</t>
+  </si>
+  <si>
+    <t>Created a trail using console</t>
+  </si>
+  <si>
+    <t>Created CloudTrail event data store using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/codetrail.tf</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1882,6 +1903,38 @@
       </c>
       <c r="J27" s="1" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>44634</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44634</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1915,8 +1968,10 @@
     <hyperlink ref="I26" r:id="rId27" xr:uid="{98358AD8-D0B2-468E-84DB-81BF4FBBC292}"/>
     <hyperlink ref="G27" r:id="rId28" xr:uid="{C2A58F46-2466-47A9-BD7C-4AC14B0E4C46}"/>
     <hyperlink ref="I27" r:id="rId29" xr:uid="{7B843C1F-ED9B-43BB-BB6B-B1BB98384675}"/>
+    <hyperlink ref="G28" r:id="rId30" xr:uid="{04C5685F-80EF-41C5-9558-46D63C3389F5}"/>
+    <hyperlink ref="I28" r:id="rId31" xr:uid="{422C1E3C-AFBA-40CF-A60F-6362EDF69A34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23560D-A642-4601-A89B-CF111C92A734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB4F5BB-48C1-4F10-8229-9A10FA9126DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -66,16 +66,6 @@
   </si>
   <si>
     <t>EC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual machine.
-Ssh
-Freedom for any OS
-Compute resource on the fly
-Choice of Processors
-Choice of resource location
-Placement groups
-</t>
   </si>
   <si>
     <t xml:space="preserve">Created t2.micro EC2 instance in Asia Pacific (Mumbai) region </t>
@@ -686,6 +676,85 @@
   </si>
   <si>
     <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/codetrail.tf</t>
+  </si>
+  <si>
+    <t>Workspaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Hosting
+Ssh
+Freedom for any OS
+Compute resource on the fly
+Choice of Processors
+Choice of resource location
+Placement groups
+</t>
+  </si>
+  <si>
+    <t>Virtual Desktop
+Easily provision cloud-based desktops that allow end-users to access applications and resources
+Facilitate remote work</t>
+  </si>
+  <si>
+    <t>S3
+Cloud9</t>
+  </si>
+  <si>
+    <t>Elasticache</t>
+  </si>
+  <si>
+    <t>In-memory caching service
+Compatible with Redis and Memcached
+Used where frequently accessed data must be in-memory.
+Caching
+Session store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMR
+SageMaker
+EC2
+Kinesis
+Kafka
+Lambda
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a Memcache node of type cache.t2.micro </t>
+  </si>
+  <si>
+    <t>Created a RedisCache node of type cache.t2.micro using terraform</t>
+  </si>
+  <si>
+    <t>Beanstalk</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/elasticache.tf</t>
+  </si>
+  <si>
+    <t>Automatic Deployment
+End-to-end web application management
+Service for deploying and scaling web applications and services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created sample python application using Elastic Beanstalk </t>
+  </si>
+  <si>
+    <t>Created Beanstalk application using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/elasticbeanstalk.tf</t>
+  </si>
+  <si>
+    <t>EC2
+Lambda
+S3
+CloudFront
+EventBridge
+DynamoDB
+ElastiCache
+EFS
+RDS
+VPC</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,25 +1197,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
@@ -1157,28 +1226,28 @@
         <v>44623</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -1189,29 +1258,29 @@
         <v>44623</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44624</v>
       </c>
@@ -1219,31 +1288,31 @@
         <v>44624</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44624</v>
       </c>
@@ -1251,31 +1320,31 @@
         <v>44624</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44624</v>
       </c>
@@ -1283,28 +1352,28 @@
         <v>44624</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44627</v>
       </c>
@@ -1312,19 +1381,19 @@
         <v>44627</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -1335,31 +1404,31 @@
         <v>44627</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44627</v>
       </c>
@@ -1367,28 +1436,28 @@
         <v>44627</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44628</v>
       </c>
@@ -1396,31 +1465,31 @@
         <v>44628</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44622</v>
       </c>
@@ -1428,28 +1497,28 @@
         <v>44622</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>44624</v>
       </c>
@@ -1457,22 +1526,22 @@
         <v>44624</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>10</v>
@@ -1486,28 +1555,28 @@
         <v>44627</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="174" x14ac:dyDescent="0.35">
@@ -1518,31 +1587,31 @@
         <v>44628</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>44629</v>
       </c>
@@ -1550,28 +1619,28 @@
         <v>44629</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -1582,31 +1651,31 @@
         <v>44629</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>44630</v>
       </c>
@@ -1614,31 +1683,31 @@
         <v>44630</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>44630</v>
       </c>
@@ -1646,28 +1715,28 @@
         <v>44630</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -1678,31 +1747,31 @@
         <v>44630</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>44630</v>
       </c>
@@ -1710,25 +1779,25 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>44630</v>
       </c>
@@ -1736,28 +1805,28 @@
         <v>44630</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="116" x14ac:dyDescent="0.35">
@@ -1768,22 +1837,22 @@
         <v>44631</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -1794,25 +1863,25 @@
         <v>44631</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -1823,25 +1892,28 @@
         <v>44631</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -1852,25 +1924,28 @@
         <v>44631</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="232" x14ac:dyDescent="0.35">
@@ -1881,28 +1956,28 @@
         <v>44634</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -1913,28 +1988,121 @@
         <v>44634</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>44635</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44635</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>155</v>
+      <c r="D29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>44636</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44636</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>44636</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44636</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1970,8 +2138,12 @@
     <hyperlink ref="I27" r:id="rId29" xr:uid="{7B843C1F-ED9B-43BB-BB6B-B1BB98384675}"/>
     <hyperlink ref="G28" r:id="rId30" xr:uid="{04C5685F-80EF-41C5-9558-46D63C3389F5}"/>
     <hyperlink ref="I28" r:id="rId31" xr:uid="{422C1E3C-AFBA-40CF-A60F-6362EDF69A34}"/>
+    <hyperlink ref="I30" r:id="rId32" xr:uid="{16C4F23A-E405-4474-8CE0-0FBA1BA2C30C}"/>
+    <hyperlink ref="G30" r:id="rId33" xr:uid="{0ECA6433-B4AB-4C95-A46C-D1509FD58F3C}"/>
+    <hyperlink ref="G31" r:id="rId34" xr:uid="{72F58137-7720-48E5-AF61-417DE8B2AC7B}"/>
+    <hyperlink ref="I31" r:id="rId35" xr:uid="{8618B8C6-88AD-48FD-9226-6EA6C4D7EAAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB4F5BB-48C1-4F10-8229-9A10FA9126DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2B8E7-E9E0-4E80-A185-B86D6B6F4246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -755,6 +755,102 @@
 EFS
 RDS
 VPC</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t>SQS
+Lambda
+Kinesis
+S3
+Redshift
+VPC</t>
+  </si>
+  <si>
+    <t>Created a SNS topic using console</t>
+  </si>
+  <si>
+    <t>Created a SNS topic using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/sns.tf</t>
+  </si>
+  <si>
+    <t>SQS</t>
+  </si>
+  <si>
+    <t>Simple Notification Service
+Messaging service for both application-to-application (A2A) and application-to-person (A2P) communication
+Send messages to users at scale via SMS, mobile push, and email
+Push Mechanism — SNS pushes messages to consumers.
+Whichever consumer is present at the time of message arrival, get the message and the message is deleted</t>
+  </si>
+  <si>
+    <t>Simple Queue Service
+Send, store, and receive messages between software components
+Pull Mechanism — Consumers poll messages from SQS.
+Any one receiver can receive a message, process and delete it. Other receivers do not receive the same message later.
+Messages are persisted for some duration is no consumer available.</t>
+  </si>
+  <si>
+    <t>Created a FIFO Queue using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/sqs.tf</t>
+  </si>
+  <si>
+    <t>Created a standard SQS queue and sent message and polled it using console</t>
+  </si>
+  <si>
+    <t>S3
+DynamoDB
+RDS
+Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>Timestream</t>
+  </si>
+  <si>
+    <t>Time series database service for IoT and operational applications
+Quickly analyze time series data generated by IoT applications using built-in analytic functions</t>
+  </si>
+  <si>
+    <t>Lambda
+Kinesis
+SageMaker
+IoT Core
+IoT Greengrass
+QuickSight
+MSK</t>
+  </si>
+  <si>
+    <t>TransferFamily</t>
+  </si>
+  <si>
+    <t>Securely scale recurring business-to-business file transfers to S3 and EFS using SFTP, FTPS, and FTP protocols.</t>
+  </si>
+  <si>
+    <t>S3
+EFS
+Athena
+KMS</t>
+  </si>
+  <si>
+    <t>OpenSearch</t>
+  </si>
+  <si>
+    <t>Quickly search and analyze your unstructured and semi-structured data to easily find what you need.
+Perform interactive log analytics, real-time application monitoring, website search</t>
+  </si>
+  <si>
+    <t>Created a OpenSearch Domain using console</t>
+  </si>
+  <si>
+    <t>Cannot be automated using terraform</t>
+  </si>
+  <si>
+    <t>Logstash</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1218,7 +1314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44623</v>
       </c>
@@ -1250,7 +1346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44623</v>
       </c>
@@ -2103,6 +2199,160 @@
       </c>
       <c r="J31" s="1" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44637</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="261" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>44637</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44637</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44641</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44641</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>44641</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44641</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2142,8 +2392,13 @@
     <hyperlink ref="G30" r:id="rId33" xr:uid="{0ECA6433-B4AB-4C95-A46C-D1509FD58F3C}"/>
     <hyperlink ref="G31" r:id="rId34" xr:uid="{72F58137-7720-48E5-AF61-417DE8B2AC7B}"/>
     <hyperlink ref="I31" r:id="rId35" xr:uid="{8618B8C6-88AD-48FD-9226-6EA6C4D7EAAF}"/>
+    <hyperlink ref="G32" r:id="rId36" xr:uid="{86699CA0-A7D8-430A-B118-3AAA20840C0F}"/>
+    <hyperlink ref="I32" r:id="rId37" xr:uid="{F8370B54-5D9C-4CB7-9419-D2585C2ABBB2}"/>
+    <hyperlink ref="G33" r:id="rId38" xr:uid="{DF2B8CF8-80C9-43AF-BA51-8651AB47C9BE}"/>
+    <hyperlink ref="I33" r:id="rId39" xr:uid="{524F8193-D64F-4FCD-A3BC-60FE5D2D85E4}"/>
+    <hyperlink ref="I36" r:id="rId40" xr:uid="{9F05557A-DDE5-4BAD-ADEA-F9DAB9BE6E49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2B8E7-E9E0-4E80-A185-B86D6B6F4246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1653B09-7AC4-45F9-904F-50BF7C59C645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="215">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -622,10 +622,6 @@
   </si>
   <si>
     <t>Athena</t>
-  </si>
-  <si>
-    <t>Interactive query service to analyze data in S3 using standard SQL
-Serverless</t>
   </si>
   <si>
     <t>Glue
@@ -851,6 +847,101 @@
   </si>
   <si>
     <t>Logstash</t>
+  </si>
+  <si>
+    <t>Security Hub</t>
+  </si>
+  <si>
+    <t>GuardDuty
+Macie
+Inspector
+Firewall Manager
+Systems Manager
+Access Analyser</t>
+  </si>
+  <si>
+    <t>Quickly assess high-priority security alerts and security posture accress AWS accounts in a one comprehensive view.
+Conduct automated security checks.</t>
+  </si>
+  <si>
+    <t>RedShift</t>
+  </si>
+  <si>
+    <t>Created d2.large redshift cluster using console</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/redshift.tf</t>
+  </si>
+  <si>
+    <t>Redshift Spectrum
+CloudWatch
+CloudTrail</t>
+  </si>
+  <si>
+    <t>SageMaker
+Quicksight
+S3
+DynamoDB</t>
+  </si>
+  <si>
+    <t>Use SQL to analyze structured and semi-structured data across data warehouses, operational databases, and data lakes.
+Run and scale analytics in seconds on all your data without having to manage your data warehouse infrastructure
+Built for running complex queries that can involve multiple data sources</t>
+  </si>
+  <si>
+    <t>Interactive query service to analyze data in S3 using standard SQL
+Built for running queries on a single data source, regardless of data organization</t>
+  </si>
+  <si>
+    <t>MSK</t>
+  </si>
+  <si>
+    <t>Managed Streaming for Apache Kafka
+Securely stream data with a fully managed, highly available Apache Kafka service
+Use applications and tools built for Apache Kafka out of the box, and scale cluster capacity automatically.</t>
+  </si>
+  <si>
+    <t>EC2
+Lambda
+Kinesis Data Analytics 
+Certificate Manager 
+Glue Schema Registry
+IoT Core
+DMS
+VPC
+KMS
+SecretsManager
+CloudFormation</t>
+  </si>
+  <si>
+    <t>QLDB</t>
+  </si>
+  <si>
+    <t>Quantum Ledger Database
+Maintain an immutable, cryptographically verifiable log of data changes.
+Trust the integrity of your data. Built-in cryptographic verification enables third-party validation of data changes.</t>
+  </si>
+  <si>
+    <t>Lambda
+Kinesis 
+Redshift
+Appsync</t>
+  </si>
+  <si>
+    <t>Kinesis</t>
+  </si>
+  <si>
+    <t>SageMaker
+EC2
+Lambda
+RedShift
+ElasticSearch
+MSK
+DynamoDB</t>
+  </si>
+  <si>
+    <t>Collect, process, and analyze real-time, streaming data.
+Process and analyze data as it arrives and respond instantly instead of having to wait until all your data is collected before the processing can begin.</t>
   </si>
 </sst>
 </file>
@@ -1235,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1293,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -2012,7 +2103,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>44631</v>
       </c>
@@ -2023,7 +2114,7 @@
         <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>143</v>
@@ -2041,7 +2132,7 @@
         <v>102</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="232" x14ac:dyDescent="0.35">
@@ -2052,19 +2143,19 @@
         <v>44634</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>59</v>
@@ -2073,7 +2164,7 @@
         <v>102</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -2087,16 +2178,16 @@
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>59</v>
@@ -2105,7 +2196,7 @@
         <v>102</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -2116,10 +2207,10 @@
         <v>44635</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>143</v>
@@ -2134,7 +2225,7 @@
         <v>59</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="145" x14ac:dyDescent="0.35">
@@ -2145,19 +2236,19 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>59</v>
@@ -2166,7 +2257,7 @@
         <v>102</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="145" x14ac:dyDescent="0.35">
@@ -2177,19 +2268,19 @@
         <v>44636</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>59</v>
@@ -2198,7 +2289,7 @@
         <v>102</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
@@ -2209,19 +2300,19 @@
         <v>44637</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>59</v>
@@ -2230,7 +2321,7 @@
         <v>102</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="261" x14ac:dyDescent="0.35">
@@ -2241,19 +2332,19 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>122</v>
@@ -2262,7 +2353,7 @@
         <v>102</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
@@ -2273,10 +2364,10 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>143</v>
@@ -2291,7 +2382,7 @@
         <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -2302,10 +2393,10 @@
         <v>44641</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>143</v>
@@ -2320,7 +2411,7 @@
         <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
@@ -2331,19 +2422,19 @@
         <v>44641</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>59</v>
@@ -2352,7 +2443,167 @@
         <v>102</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44642</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>196</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="178.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44642</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44642</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44642</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>44642</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44642</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2397,8 +2648,14 @@
     <hyperlink ref="G33" r:id="rId38" xr:uid="{DF2B8CF8-80C9-43AF-BA51-8651AB47C9BE}"/>
     <hyperlink ref="I33" r:id="rId39" xr:uid="{524F8193-D64F-4FCD-A3BC-60FE5D2D85E4}"/>
     <hyperlink ref="I36" r:id="rId40" xr:uid="{9F05557A-DDE5-4BAD-ADEA-F9DAB9BE6E49}"/>
+    <hyperlink ref="I37" r:id="rId41" xr:uid="{7823ED59-17C7-4557-AB93-404EFC1FBF1A}"/>
+    <hyperlink ref="G38" r:id="rId42" xr:uid="{A902722C-C225-4039-A1BE-F33721CAC50B}"/>
+    <hyperlink ref="I38" r:id="rId43" xr:uid="{5CA7574F-3440-4FC6-B61C-C864160FF3EB}"/>
+    <hyperlink ref="I39" r:id="rId44" xr:uid="{550E54F5-69EC-46C6-ADB5-410070DDAF39}"/>
+    <hyperlink ref="I40" r:id="rId45" xr:uid="{1F5C3EE6-59FB-44F3-885B-193A6E4233E0}"/>
+    <hyperlink ref="I41" r:id="rId46" xr:uid="{EB1B94D9-F30D-4C4B-ADA7-CB13A0F1332F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1653B09-7AC4-45F9-904F-50BF7C59C645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5527E41-9F43-4111-B505-3E82498B0A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="248">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -942,6 +942,149 @@
   <si>
     <t>Collect, process, and analyze real-time, streaming data.
 Process and analyze data as it arrives and respond instantly instead of having to wait until all your data is collected before the processing can begin.</t>
+  </si>
+  <si>
+    <t>Global Accelerator</t>
+  </si>
+  <si>
+    <t>Improve global application availability and performance using the AWS global network
+AWS Global Accelerator optimizes the path to your application to keep packet loss, jitter, and latency consistently low.</t>
+  </si>
+  <si>
+    <t>CloudFront
+ELB
+S3</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>Create, maintain, and secure APIs at any scale
+Handles all the tasks involved in accepting and processing of concurrent API calls, including traffic management, CORS support, authorization and access control, throttling, monitoring, and API version management</t>
+  </si>
+  <si>
+    <t>Lambda
+Kinesis
+EC2
+DynamoDB
+CloudFront
+Cognito
+ELB
+CloudMap</t>
+  </si>
+  <si>
+    <t>Created and enabled an API using console</t>
+  </si>
+  <si>
+    <t>Created and enabled rest API using console</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/apigateway.tf</t>
+  </si>
+  <si>
+    <t>Assess, audit, and evaluate the configurations of your AWS resources.
+Continuously monitor and record configuration changes of your AWS resources</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>SNS
+CloudTrail
+S3
+CloudWatch</t>
+  </si>
+  <si>
+    <t>EMR (Elastic Map Reduce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Data Platform
+Easily run and scale Apache Spark, Hive, Presto, and other big data workloads.
+</t>
+  </si>
+  <si>
+    <t>EC2
+EKS
+Ouposts
+EMR
+SageMaker Studio
+MWAA
+dynamoDB</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Fully managed service for open source message brokers
+like Apache ActiveMQ and RabbitMQ
+Supports APIs and protocols for messaging, including JMS, NMS, AMQP 1.0 and 0-9-1, STOMP, MQTT, and WebSocket</t>
+  </si>
+  <si>
+    <t>Created Apache ActiveMQ broker of type mq.t2.micro using console</t>
+  </si>
+  <si>
+    <t>Autoscaling</t>
+  </si>
+  <si>
+    <t>Created Apache ActiveMQ broker of type mq.t2.micro using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/mf.tf</t>
+  </si>
+  <si>
+    <t>EC2
+ECS
+DynamoDB
+Aurora</t>
+  </si>
+  <si>
+    <t>Unified Scaling for cloud applications
+Monitors your applications and automatically adjusts capacity to maintain steady, predictable performance</t>
+  </si>
+  <si>
+    <t>Optimized DynamoDB for better availability using autoscaling</t>
+  </si>
+  <si>
+    <t>Optimized DynamoDB for readCapacity units using autoscaling</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/autoscaling.tf</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>EC2
+EBS
+S3
+RDS
+DynamoDB
+Neptune
+DocumentDB
+EFS
+FSx
+AWS storage gateway</t>
+  </si>
+  <si>
+    <t>Centrally manage and automate backups across AWS services
+Create backup policies called backup plans that enable you to define your backup requirements</t>
+  </si>
+  <si>
+    <t>Certificate Manager</t>
+  </si>
+  <si>
+    <t>Easily provision, manage, and deploy public and private SSL/TLS certificates for use with AWS services and your internal connected resources.
+Removes the time-consuming manual process of purchasing, uploading, and renewing SSL/TLS certificates</t>
+  </si>
+  <si>
+    <t>CloudWatch
+EventBridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELB
+CloudFront      
+API Gateway   
+Nitro Enclaves          </t>
   </si>
 </sst>
 </file>
@@ -1326,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2604,6 +2747,259 @@
       </c>
       <c r="J41" s="1" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44643</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="203" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44643</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>44643</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44643</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44644</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44644</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44644</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44644</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>44644</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44644</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2654,8 +3050,19 @@
     <hyperlink ref="I39" r:id="rId44" xr:uid="{550E54F5-69EC-46C6-ADB5-410070DDAF39}"/>
     <hyperlink ref="I40" r:id="rId45" xr:uid="{1F5C3EE6-59FB-44F3-885B-193A6E4233E0}"/>
     <hyperlink ref="I41" r:id="rId46" xr:uid="{EB1B94D9-F30D-4C4B-ADA7-CB13A0F1332F}"/>
+    <hyperlink ref="I42" r:id="rId47" xr:uid="{C2158C02-9C9F-4B32-9048-AE2B2D4C76AC}"/>
+    <hyperlink ref="G43" r:id="rId48" xr:uid="{0E4442AB-B7A0-4A06-AF24-2FF0B6AADF16}"/>
+    <hyperlink ref="I43" r:id="rId49" xr:uid="{BB657429-5CD8-4731-9028-9DFC9E87670F}"/>
+    <hyperlink ref="I44" r:id="rId50" xr:uid="{925B1E73-3FF6-4EC5-A191-931CFA0B78AA}"/>
+    <hyperlink ref="I45" r:id="rId51" xr:uid="{0ABF1B6B-8B0D-4657-877A-7BCE10311091}"/>
+    <hyperlink ref="G46" r:id="rId52" xr:uid="{99CFCAA4-A5FD-4FC2-A4F1-046800207AA1}"/>
+    <hyperlink ref="I46" r:id="rId53" xr:uid="{EC5EBABA-4556-47DC-9C1B-6828E7D3CB0E}"/>
+    <hyperlink ref="G47" r:id="rId54" xr:uid="{3329236B-E351-42A2-97FB-9A73A442B282}"/>
+    <hyperlink ref="I47" r:id="rId55" xr:uid="{03DAA1E9-CD9E-4C39-8A30-634A15F51FFD}"/>
+    <hyperlink ref="I48" r:id="rId56" xr:uid="{EF3F3F9F-162F-4209-B56F-A0D44F923F23}"/>
+    <hyperlink ref="I49" r:id="rId57" xr:uid="{4065FC09-55A3-4CE5-ABB3-B3094DED8578}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5527E41-9F43-4111-B505-3E82498B0A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86862E7E-E072-4860-AD99-826F171778B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="262">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -1085,6 +1085,67 @@
 CloudFront      
 API Gateway   
 Nitro Enclaves          </t>
+  </si>
+  <si>
+    <t>Secure end-to-end management solution for hybrid cloud environments.</t>
+  </si>
+  <si>
+    <t>Easily store, share, and deploy your container software anywhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS
+EKS
+</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>ECR (Elastic Container Registry)</t>
+  </si>
+  <si>
+    <t>Created Elastic Container Registry Repository</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/ecr.tf</t>
+  </si>
+  <si>
+    <t>Launch containers using CI/CD automation tools.</t>
+  </si>
+  <si>
+    <t>ECS (Elastic Container Service)</t>
+  </si>
+  <si>
+    <t>Fargate
+Wavelength
+Outposts
+ECR
+EC2</t>
+  </si>
+  <si>
+    <t>ECS (Elastic Kubernetes Service)</t>
+  </si>
+  <si>
+    <t>Managed container service to run and scale Kubernetes applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fargate
+EC2
+</t>
+  </si>
+  <si>
+    <t>CloudFromation
+CloudTrail
+CloudWatch
+CodeBuild
+Config
+ECS
+EMR
+Fargate
+IoT Greengrass
+EKS
+SageMaker
+Security Hub</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J1048552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3000,6 +3061,139 @@
       </c>
       <c r="J49" s="1" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>44645</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44645</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>44645</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44645</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>44646</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44646</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>44646</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44646</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1048552" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I1048552" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3061,8 +3255,13 @@
     <hyperlink ref="I47" r:id="rId55" xr:uid="{03DAA1E9-CD9E-4C39-8A30-634A15F51FFD}"/>
     <hyperlink ref="I48" r:id="rId56" xr:uid="{EF3F3F9F-162F-4209-B56F-A0D44F923F23}"/>
     <hyperlink ref="I49" r:id="rId57" xr:uid="{4065FC09-55A3-4CE5-ABB3-B3094DED8578}"/>
+    <hyperlink ref="G51" r:id="rId58" xr:uid="{5340BE9E-F6A9-467F-AA82-B55E9DC52F13}"/>
+    <hyperlink ref="I51" r:id="rId59" xr:uid="{E259BE94-2C68-45F0-87CA-F0CA86AA0197}"/>
+    <hyperlink ref="I52" r:id="rId60" xr:uid="{5E185474-73CE-4F53-88D9-BC3193D1BADC}"/>
+    <hyperlink ref="I53" r:id="rId61" xr:uid="{A710E694-0113-4588-A006-57C4801942AA}"/>
+    <hyperlink ref="I50" r:id="rId62" xr:uid="{2548ED02-45BA-46FE-90AB-CFB7D85AB2FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId58"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86862E7E-E072-4860-AD99-826F171778B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E42A4-6DFA-422D-820B-32B4E6F61F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="268">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -1146,6 +1146,36 @@
 EKS
 SageMaker
 Security Hub</t>
+  </si>
+  <si>
+    <t>CloudFront</t>
+  </si>
+  <si>
+    <t>CloudFront Functions
+Lambda
+Shield
+WAF
+S3
+EC2
+API Gateway
+ELB</t>
+  </si>
+  <si>
+    <t>Content Delivery Network (CDN) service.
+Deliver content with low latency and high transfer speeds
+Traffic encryption
+Zero fees for data transfer out from AWS origins.
+Stream live and on-demand video.
+Deliver fast, secure websites.</t>
+  </si>
+  <si>
+    <t>Created CloudFront distribution using console</t>
+  </si>
+  <si>
+    <t>Created CloudFront cache policy using terraform</t>
+  </si>
+  <si>
+    <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/cloudfront.tf</t>
   </si>
 </sst>
 </file>
@@ -1532,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
   <dimension ref="A1:J1048552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3065,10 +3095,10 @@
     </row>
     <row r="50" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B50" s="3">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>140</v>
@@ -3097,10 +3127,10 @@
     </row>
     <row r="51" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="B51" s="3">
-        <v>44645</v>
+        <v>44647</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>252</v>
@@ -3129,10 +3159,10 @@
     </row>
     <row r="52" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B52" s="3">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>256</v>
@@ -3161,10 +3191,10 @@
     </row>
     <row r="53" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="B53" s="3">
-        <v>44646</v>
+        <v>44648</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>258</v>
@@ -3189,6 +3219,38 @@
       </c>
       <c r="J53" s="1" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="203" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>44649</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44649</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="1048552" spans="9:9" x14ac:dyDescent="0.35">
@@ -3260,8 +3322,10 @@
     <hyperlink ref="I52" r:id="rId60" xr:uid="{5E185474-73CE-4F53-88D9-BC3193D1BADC}"/>
     <hyperlink ref="I53" r:id="rId61" xr:uid="{A710E694-0113-4588-A006-57C4801942AA}"/>
     <hyperlink ref="I50" r:id="rId62" xr:uid="{2548ED02-45BA-46FE-90AB-CFB7D85AB2FA}"/>
+    <hyperlink ref="G54" r:id="rId63" xr:uid="{8DF60488-A851-49D3-8F4A-C07BB9A5D473}"/>
+    <hyperlink ref="I54" r:id="rId64" xr:uid="{5BCC7603-E1F9-4A59-83EB-3D9B15B6B3CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69E42A4-6DFA-422D-820B-32B4E6F61F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4EF27-5473-4268-A116-F5D409A976CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="268">
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:J1048552"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54:I54"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,6 +1810,12 @@
       <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>122</v>
       </c>
@@ -1932,6 +1938,9 @@
       <c r="G12" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I12" s="5" t="s">
         <v>102</v>
       </c>
@@ -2208,6 +2217,12 @@
       <c r="E21" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,6 +2284,9 @@
       <c r="G23" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I23" s="5" t="s">
         <v>102</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="232" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>44634</v>
       </c>
@@ -2458,6 +2476,9 @@
       <c r="H29" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="I29" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="J29" s="1" t="s">
         <v>160</v>
       </c>
@@ -2615,6 +2636,9 @@
       <c r="H34" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I34" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="J34" s="1" t="s">
         <v>187</v>
       </c>
@@ -2643,6 +2667,9 @@
       </c>
       <c r="H35" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>190</v>
@@ -3324,8 +3351,11 @@
     <hyperlink ref="I50" r:id="rId62" xr:uid="{2548ED02-45BA-46FE-90AB-CFB7D85AB2FA}"/>
     <hyperlink ref="G54" r:id="rId63" xr:uid="{8DF60488-A851-49D3-8F4A-C07BB9A5D473}"/>
     <hyperlink ref="I54" r:id="rId64" xr:uid="{5BCC7603-E1F9-4A59-83EB-3D9B15B6B3CC}"/>
+    <hyperlink ref="I35" r:id="rId65" xr:uid="{F2965BA2-A69C-432D-AAEF-A9250F48A92B}"/>
+    <hyperlink ref="I29" r:id="rId66" xr:uid="{C5FF29C2-0376-4961-9FA7-5FD9FB1D74AE}"/>
+    <hyperlink ref="I34" r:id="rId67" xr:uid="{4031B7B3-B100-428F-A2B2-F9208289D35B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
--- a/AWS_Progress_Tracker.xlsx
+++ b/AWS_Progress_Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\AWS-terraform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4EF27-5473-4268-A116-F5D409A976CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF967F3-D726-43C8-97EC-8C8D181AE4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FA85890-BCA6-470A-8260-52EA0665D7EB}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/cloudFormation.tf</t>
   </si>
   <si>
-    <t>EBS</t>
-  </si>
-  <si>
     <t>Neptune</t>
   </si>
   <si>
@@ -223,11 +220,6 @@
 Heterogeneous Migrations - 
 Oracle to Aurora
 Transfer data from different cloud providers to AWS</t>
-  </si>
-  <si>
-    <t>Perform event driven actions on AWS
-Automatically respond to code excecution requirement at any scale
-Serverless</t>
   </si>
   <si>
     <t>Storage volume that can be attached to EC2
@@ -351,9 +343,6 @@
     <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/lambda.tf</t>
   </si>
   <si>
-    <t>EFS</t>
-  </si>
-  <si>
     <t>Lambda
 EC2
 ECS
@@ -561,9 +550,6 @@
   <si>
     <t>EC2
 RDS</t>
-  </si>
-  <si>
-    <t>ELB</t>
   </si>
   <si>
     <t>Automatically distribute incoming application traffic in one or more availability zones
@@ -1121,9 +1107,6 @@
 Outposts
 ECR
 EC2</t>
-  </si>
-  <si>
-    <t>ECS (Elastic Kubernetes Service)</t>
   </si>
   <si>
     <t>Managed container service to run and scale Kubernetes applications</t>
@@ -1176,6 +1159,23 @@
   </si>
   <si>
     <t>https://github.com/ShivamGautam98/AWS-terraform/blob/main/cloudfront.tf</t>
+  </si>
+  <si>
+    <t>EBS (Elastic Block Storage)</t>
+  </si>
+  <si>
+    <t>Perform event driven actions on AWS
+Automatically respond to code execution requirement at any scale
+Serverless</t>
+  </si>
+  <si>
+    <t>EFS (Elastic File System)</t>
+  </si>
+  <si>
+    <t>ELB (Elastic Load Balancer)</t>
+  </si>
+  <si>
+    <t>EKS (Elastic Kubernetes Service)</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BBF0D7-2510-401B-B670-F4C8700ABDF6}">
   <dimension ref="A1:J1048552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="125" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="142" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44622</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1630,13 +1630,13 @@
         <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="145" x14ac:dyDescent="0.35">
@@ -1653,22 +1653,22 @@
         <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="116" x14ac:dyDescent="0.35">
@@ -1685,20 +1685,20 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -1724,13 +1724,13 @@
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
@@ -1756,13 +1756,13 @@
         <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
@@ -1788,10 +1788,10 @@
         <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -1811,16 +1811,16 @@
         <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -1834,25 +1834,25 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="203" x14ac:dyDescent="0.35">
@@ -1872,16 +1872,16 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="116" x14ac:dyDescent="0.35">
@@ -1910,10 +1910,10 @@
         <v>35</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="116" x14ac:dyDescent="0.35">
@@ -1924,28 +1924,28 @@
         <v>44622</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -1956,22 +1956,22 @@
         <v>44624</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>10</v>
@@ -1985,28 +1985,28 @@
         <v>44627</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="174" x14ac:dyDescent="0.35">
@@ -2020,25 +2020,25 @@
         <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
@@ -2049,28 +2049,28 @@
         <v>44629</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -2081,28 +2081,28 @@
         <v>44629</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="145" x14ac:dyDescent="0.35">
@@ -2113,28 +2113,28 @@
         <v>44630</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -2145,28 +2145,28 @@
         <v>44630</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -2177,28 +2177,28 @@
         <v>44630</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -2209,28 +2209,28 @@
         <v>44630</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
@@ -2241,28 +2241,28 @@
         <v>44630</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="116" x14ac:dyDescent="0.35">
@@ -2273,25 +2273,25 @@
         <v>44631</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -2302,22 +2302,22 @@
         <v>44631</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>16</v>
@@ -2331,28 +2331,28 @@
         <v>44631</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
@@ -2363,31 +2363,31 @@
         <v>44631</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="210.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>44634</v>
       </c>
@@ -2395,28 +2395,28 @@
         <v>44634</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="G27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -2430,25 +2430,25 @@
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -2459,28 +2459,28 @@
         <v>44635</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="145" x14ac:dyDescent="0.35">
@@ -2491,28 +2491,28 @@
         <v>44636</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="145" x14ac:dyDescent="0.35">
@@ -2523,28 +2523,28 @@
         <v>44636</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="G31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
@@ -2555,28 +2555,28 @@
         <v>44637</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="261" x14ac:dyDescent="0.35">
@@ -2587,28 +2587,28 @@
         <v>44637</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
@@ -2619,28 +2619,28 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="87" x14ac:dyDescent="0.35">
@@ -2651,28 +2651,28 @@
         <v>44641</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
@@ -2683,28 +2683,28 @@
         <v>44641</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="116" x14ac:dyDescent="0.35">
@@ -2715,28 +2715,28 @@
         <v>44642</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="178.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2747,28 +2747,28 @@
         <v>44642</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="174" x14ac:dyDescent="0.35">
@@ -2779,28 +2779,28 @@
         <v>44642</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
@@ -2811,28 +2811,28 @@
         <v>44642</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="145" x14ac:dyDescent="0.35">
@@ -2843,28 +2843,28 @@
         <v>44642</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="174" x14ac:dyDescent="0.35">
@@ -2875,28 +2875,28 @@
         <v>44643</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="203" x14ac:dyDescent="0.35">
@@ -2907,28 +2907,28 @@
         <v>44643</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="G43" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
@@ -2939,28 +2939,28 @@
         <v>44643</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
@@ -2971,28 +2971,28 @@
         <v>44644</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="174" x14ac:dyDescent="0.35">
@@ -3003,25 +3003,25 @@
         <v>44644</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="G46" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="116" x14ac:dyDescent="0.35">
@@ -3032,28 +3032,28 @@
         <v>44644</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="145" x14ac:dyDescent="0.35">
@@ -3064,28 +3064,28 @@
         <v>44644</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
@@ -3096,28 +3096,28 @@
         <v>44644</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="174" x14ac:dyDescent="0.35">
@@ -3128,28 +3128,28 @@
         <v>44647</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -3160,28 +3160,28 @@
         <v>44647</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -3192,28 +3192,28 @@
         <v>44648</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
@@ -3224,28 +3224,28 @@
         <v>44648</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="203" x14ac:dyDescent="0.35">
@@ -3256,33 +3256,33 @@
         <v>44649</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1048552" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I1048552" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
